--- a/tables/crop_classifications/DE_LSA_crop_classification_final.xlsx
+++ b/tables/crop_classifications/DE_LSA_crop_classification_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA25FB0D-BE24-44B6-9861-D28324BAF8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD79ADE-7F3F-49B3-BBA6-991CA261D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3655,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="T485" sqref="T485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15319,10 +15319,10 @@
         <v>710</v>
       </c>
       <c r="F507" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G507">
-        <v>3399000000</v>
+        <v>3302000000</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.3">
@@ -15342,10 +15342,10 @@
         <v>710</v>
       </c>
       <c r="F508" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G508">
-        <v>3399000000</v>
+        <v>3302000000</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">

--- a/tables/crop_classifications/DE_LSA_crop_classification_final.xlsx
+++ b/tables/crop_classifications/DE_LSA_crop_classification_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\Europe-LAND\data\tables\crop_classifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD79ADE-7F3F-49B3-BBA6-991CA261D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA25FB0D-BE24-44B6-9861-D28324BAF8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46188" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3655,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
-      <selection activeCell="T485" sqref="T485"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15319,10 +15319,10 @@
         <v>710</v>
       </c>
       <c r="F507" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G507">
-        <v>3302000000</v>
+        <v>3399000000</v>
       </c>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.3">
@@ -15342,10 +15342,10 @@
         <v>710</v>
       </c>
       <c r="F508" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G508">
-        <v>3302000000</v>
+        <v>3399000000</v>
       </c>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.3">
